--- a/distance_state_louisiana_2.xlsx
+++ b/distance_state_louisiana_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciliabaanstra/Documents/CoSEM/Q3/Design Networked Systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11322867-CF48-0D4D-8D26-A084B02E2C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644ADBAC-D27D-C848-A944-916488FAA8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2800" windowWidth="27840" windowHeight="16740" xr2:uid="{CE20DEA7-EC6A-CA4E-918A-AB7D6E5261DE}"/>
+    <workbookView xWindow="18780" yWindow="540" windowWidth="19460" windowHeight="19800" xr2:uid="{CE20DEA7-EC6A-CA4E-918A-AB7D6E5261DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -494,10 +494,14 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -560,10 +564,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>407</v>
